--- a/1_Result_Tables/4_ifoCAST_evaluations_last_rep/ifoCAst_error_tables_last_rep_T45.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_last_rep/ifoCAst_error_tables_last_rep_T45.xlsx
@@ -423,22 +423,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3194773862702889</v>
+        <v>0.3065615121153629</v>
       </c>
       <c r="C2">
-        <v>1.702677091759666</v>
+        <v>1.723407689173405</v>
       </c>
       <c r="D2">
-        <v>11.92832510594142</v>
+        <v>11.71420312276167</v>
       </c>
       <c r="E2">
-        <v>3.453740740985261</v>
+        <v>3.4226018060478</v>
       </c>
       <c r="F2">
-        <v>3.52385758379698</v>
+        <v>3.489063932081051</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
